--- a/pred_ohlcv/54/2019-11-14 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-14 OGO ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="C2" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="D2" t="n">
         <v>23.8</v>
       </c>
       <c r="E2" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="F2" t="n">
-        <v>39720.27</v>
+        <v>22100.8102</v>
       </c>
       <c r="G2" t="n">
-        <v>23.95000000000001</v>
+        <v>23.95666666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -437,21 +445,24 @@
         <v>23.7</v>
       </c>
       <c r="C3" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="D3" t="n">
         <v>23.8</v>
       </c>
       <c r="E3" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="F3" t="n">
-        <v>4022</v>
+        <v>39720.27</v>
       </c>
       <c r="G3" t="n">
-        <v>23.94000000000001</v>
+        <v>23.95000000000001</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -463,21 +474,24 @@
         <v>23.7</v>
       </c>
       <c r="C4" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="D4" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="E4" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="F4" t="n">
-        <v>105.7697</v>
+        <v>4022</v>
       </c>
       <c r="G4" t="n">
-        <v>23.92833333333334</v>
+        <v>23.94000000000001</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C5" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="D5" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E5" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="F5" t="n">
-        <v>3990.5466</v>
+        <v>105.7697</v>
       </c>
       <c r="G5" t="n">
-        <v>23.90333333333334</v>
+        <v>23.92833333333334</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -515,21 +532,24 @@
         <v>23.6</v>
       </c>
       <c r="C6" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="D6" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="E6" t="n">
         <v>23.6</v>
       </c>
       <c r="F6" t="n">
-        <v>1087.4031</v>
+        <v>3990.5466</v>
       </c>
       <c r="G6" t="n">
-        <v>23.87000000000001</v>
+        <v>23.90333333333334</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -541,21 +561,24 @@
         <v>23.6</v>
       </c>
       <c r="C7" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="D7" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E7" t="n">
         <v>23.6</v>
       </c>
       <c r="F7" t="n">
-        <v>300</v>
+        <v>1087.4031</v>
       </c>
       <c r="G7" t="n">
-        <v>23.82333333333334</v>
+        <v>23.87000000000001</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="C8" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="D8" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="E8" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="F8" t="n">
-        <v>104.2579</v>
+        <v>300</v>
       </c>
       <c r="G8" t="n">
-        <v>23.775</v>
+        <v>23.82333333333334</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C9" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="D9" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="E9" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="F9" t="n">
-        <v>3401.82</v>
+        <v>104.2579</v>
       </c>
       <c r="G9" t="n">
-        <v>23.72333333333334</v>
+        <v>23.775</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="C10" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="D10" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="E10" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="F10" t="n">
-        <v>22</v>
+        <v>3401.82</v>
       </c>
       <c r="G10" t="n">
-        <v>23.71</v>
+        <v>23.72333333333334</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="C11" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="D11" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="E11" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="F11" t="n">
-        <v>49.3325</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>23.69833333333333</v>
+        <v>23.71</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,12 +715,15 @@
         <v>23.7</v>
       </c>
       <c r="F12" t="n">
-        <v>13421.2831</v>
+        <v>49.3325</v>
       </c>
       <c r="G12" t="n">
-        <v>23.68666666666667</v>
+        <v>23.69833333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -697,21 +735,24 @@
         <v>23.7</v>
       </c>
       <c r="C13" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="D13" t="n">
         <v>23.7</v>
       </c>
       <c r="E13" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="F13" t="n">
-        <v>667.1799999999999</v>
+        <v>13421.2831</v>
       </c>
       <c r="G13" t="n">
         <v>23.68666666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="C14" t="n">
         <v>23.5</v>
       </c>
       <c r="D14" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="E14" t="n">
         <v>23.5</v>
       </c>
       <c r="F14" t="n">
-        <v>6643.0402</v>
+        <v>667.1799999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>23.65166666666667</v>
+        <v>23.68666666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,21 +793,24 @@
         <v>23.5</v>
       </c>
       <c r="C15" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D15" t="n">
         <v>23.5</v>
       </c>
       <c r="E15" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="F15" t="n">
-        <v>8355.48</v>
+        <v>6643.0402</v>
       </c>
       <c r="G15" t="n">
-        <v>23.64166666666667</v>
+        <v>23.65166666666667</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C16" t="n">
         <v>23.4</v>
       </c>
-      <c r="C16" t="n">
-        <v>22.7</v>
-      </c>
       <c r="D16" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E16" t="n">
         <v>23.4</v>
       </c>
-      <c r="E16" t="n">
-        <v>22.7</v>
-      </c>
       <c r="F16" t="n">
-        <v>71855.2715</v>
+        <v>8355.48</v>
       </c>
       <c r="G16" t="n">
-        <v>23.61666666666667</v>
+        <v>23.64166666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,21 +851,24 @@
         <v>23.4</v>
       </c>
       <c r="C17" t="n">
-        <v>23.6</v>
+        <v>22.7</v>
       </c>
       <c r="D17" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="E17" t="n">
-        <v>23.4</v>
+        <v>22.7</v>
       </c>
       <c r="F17" t="n">
-        <v>4000</v>
+        <v>71855.2715</v>
       </c>
       <c r="G17" t="n">
-        <v>23.61</v>
+        <v>23.61666666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="C18" t="n">
         <v>23.6</v>
@@ -833,15 +886,18 @@
         <v>23.6</v>
       </c>
       <c r="E18" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="F18" t="n">
-        <v>12933.858</v>
+        <v>4000</v>
       </c>
       <c r="G18" t="n">
-        <v>23.60333333333334</v>
+        <v>23.61</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="C19" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="D19" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="E19" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="F19" t="n">
-        <v>15800</v>
+        <v>12933.858</v>
       </c>
       <c r="G19" t="n">
-        <v>23.59833333333334</v>
+        <v>23.60333333333334</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="C20" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="D20" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="E20" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="F20" t="n">
-        <v>2520.9908</v>
+        <v>15800</v>
       </c>
       <c r="G20" t="n">
-        <v>23.595</v>
+        <v>23.59833333333334</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>23.8</v>
       </c>
       <c r="F21" t="n">
-        <v>1263.6385</v>
+        <v>2520.9908</v>
       </c>
       <c r="G21" t="n">
-        <v>23.59166666666667</v>
+        <v>23.595</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>23.8</v>
       </c>
       <c r="F22" t="n">
-        <v>3540.997</v>
+        <v>1263.6385</v>
       </c>
       <c r="G22" t="n">
-        <v>23.58</v>
+        <v>23.59166666666667</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -957,21 +1025,24 @@
         <v>23.8</v>
       </c>
       <c r="C23" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="D23" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="E23" t="n">
         <v>23.8</v>
       </c>
       <c r="F23" t="n">
-        <v>2314</v>
+        <v>3540.997</v>
       </c>
       <c r="G23" t="n">
-        <v>23.57</v>
+        <v>23.58</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C24" t="n">
         <v>23.9</v>
       </c>
-      <c r="C24" t="n">
-        <v>24.2</v>
-      </c>
       <c r="D24" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="E24" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="F24" t="n">
-        <v>8199</v>
+        <v>2314</v>
       </c>
       <c r="G24" t="n">
-        <v>23.59333333333334</v>
+        <v>23.57</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>24.4</v>
+        <v>23.9</v>
       </c>
       <c r="C25" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="D25" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="E25" t="n">
-        <v>24.4</v>
+        <v>23.9</v>
       </c>
       <c r="F25" t="n">
-        <v>61.7451</v>
+        <v>8199</v>
       </c>
       <c r="G25" t="n">
-        <v>23.60333333333334</v>
+        <v>23.59333333333334</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="C26" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="D26" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E26" t="n">
-        <v>23.9</v>
+        <v>24.4</v>
       </c>
       <c r="F26" t="n">
-        <v>12156.5453</v>
+        <v>61.7451</v>
       </c>
       <c r="G26" t="n">
-        <v>23.62</v>
+        <v>23.60333333333334</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,25 +1138,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="D27" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="E27" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="F27" t="n">
-        <v>28591.357</v>
+        <v>12156.5453</v>
       </c>
       <c r="G27" t="n">
-        <v>23.61833333333334</v>
+        <v>23.62</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1084,25 +1167,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="C28" t="n">
         <v>24</v>
       </c>
       <c r="D28" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="E28" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="F28" t="n">
-        <v>124</v>
+        <v>28591.357</v>
       </c>
       <c r="G28" t="n">
-        <v>23.62</v>
+        <v>23.61833333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="D29" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="E29" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="F29" t="n">
-        <v>2976.521</v>
+        <v>124</v>
       </c>
       <c r="G29" t="n">
-        <v>23.62833333333334</v>
+        <v>23.62</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="C30" t="n">
         <v>23.7</v>
       </c>
       <c r="D30" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="E30" t="n">
         <v>23.7</v>
       </c>
       <c r="F30" t="n">
-        <v>21502.8999</v>
+        <v>2976.521</v>
       </c>
       <c r="G30" t="n">
-        <v>23.625</v>
+        <v>23.62833333333334</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="C31" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="D31" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="E31" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="F31" t="n">
-        <v>7401.4835</v>
+        <v>21502.8999</v>
       </c>
       <c r="G31" t="n">
-        <v>23.63666666666667</v>
+        <v>23.625</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,21 +1286,24 @@
         <v>23.5</v>
       </c>
       <c r="C32" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="D32" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="E32" t="n">
         <v>23.5</v>
       </c>
       <c r="F32" t="n">
-        <v>1.29</v>
+        <v>7401.4835</v>
       </c>
       <c r="G32" t="n">
-        <v>23.64</v>
+        <v>23.63666666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="C33" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="D33" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E33" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="F33" t="n">
-        <v>886</v>
+        <v>1.29</v>
       </c>
       <c r="G33" t="n">
-        <v>23.64666666666667</v>
+        <v>23.64</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>23.4</v>
       </c>
       <c r="C34" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="D34" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="E34" t="n">
         <v>23.4</v>
       </c>
       <c r="F34" t="n">
-        <v>750</v>
+        <v>886</v>
       </c>
       <c r="G34" t="n">
         <v>23.64666666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C35" t="n">
         <v>23.6</v>
-      </c>
-      <c r="C35" t="n">
-        <v>23</v>
       </c>
       <c r="D35" t="n">
         <v>23.6</v>
       </c>
       <c r="E35" t="n">
-        <v>23</v>
+        <v>23.4</v>
       </c>
       <c r="F35" t="n">
-        <v>18801.68</v>
+        <v>750</v>
       </c>
       <c r="G35" t="n">
-        <v>23.64166666666667</v>
+        <v>23.64666666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C36" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="D36" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E36" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="F36" t="n">
-        <v>247.1523</v>
+        <v>18801.68</v>
       </c>
       <c r="G36" t="n">
-        <v>23.64000000000001</v>
+        <v>23.64166666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="C37" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D37" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="E37" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F37" t="n">
-        <v>1684.9708</v>
+        <v>247.1523</v>
       </c>
       <c r="G37" t="n">
-        <v>23.63333333333334</v>
+        <v>23.64000000000001</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="C38" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="D38" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="E38" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="F38" t="n">
-        <v>74449.389</v>
+        <v>1684.9708</v>
       </c>
       <c r="G38" t="n">
         <v>23.63333333333334</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="C39" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="D39" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="E39" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="F39" t="n">
-        <v>8913.4413</v>
+        <v>74449.389</v>
       </c>
       <c r="G39" t="n">
-        <v>23.62833333333334</v>
+        <v>23.63333333333334</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="C40" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="D40" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="E40" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="F40" t="n">
-        <v>2104.201680672269</v>
+        <v>8913.4413</v>
       </c>
       <c r="G40" t="n">
-        <v>23.64000000000001</v>
+        <v>23.62833333333334</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="C41" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="D41" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="E41" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="F41" t="n">
-        <v>428.84</v>
+        <v>2104.201680672269</v>
       </c>
       <c r="G41" t="n">
-        <v>23.63833333333334</v>
+        <v>23.64000000000001</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1454,18 +1579,21 @@
         <v>23.2</v>
       </c>
       <c r="D42" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="E42" t="n">
         <v>23.2</v>
       </c>
       <c r="F42" t="n">
-        <v>39032.43</v>
+        <v>428.84</v>
       </c>
       <c r="G42" t="n">
-        <v>23.63333333333334</v>
+        <v>23.63833333333334</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="C43" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D43" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E43" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F43" t="n">
-        <v>2104.2017</v>
+        <v>39032.43</v>
       </c>
       <c r="G43" t="n">
-        <v>23.63000000000001</v>
+        <v>23.63333333333334</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>23.3</v>
       </c>
       <c r="F44" t="n">
-        <v>36432.299</v>
+        <v>2104.2017</v>
       </c>
       <c r="G44" t="n">
-        <v>23.62000000000001</v>
+        <v>23.63000000000001</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C45" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="D45" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="E45" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F45" t="n">
-        <v>5784.0779</v>
+        <v>36432.299</v>
       </c>
       <c r="G45" t="n">
-        <v>23.62333333333334</v>
+        <v>23.62000000000001</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="C46" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="D46" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="E46" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="F46" t="n">
-        <v>24264.8223</v>
+        <v>5784.0779</v>
       </c>
       <c r="G46" t="n">
-        <v>23.61500000000001</v>
+        <v>23.62333333333334</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1587,15 +1727,18 @@
         <v>23.1</v>
       </c>
       <c r="E47" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="F47" t="n">
-        <v>43187.412</v>
+        <v>24264.8223</v>
       </c>
       <c r="G47" t="n">
-        <v>23.60666666666667</v>
+        <v>23.61500000000001</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="C48" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D48" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="E48" t="n">
         <v>23</v>
       </c>
       <c r="F48" t="n">
-        <v>4211.3741</v>
+        <v>43187.412</v>
       </c>
       <c r="G48" t="n">
-        <v>23.59833333333334</v>
+        <v>23.60666666666667</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>23</v>
       </c>
       <c r="F49" t="n">
-        <v>30</v>
+        <v>4211.3741</v>
       </c>
       <c r="G49" t="n">
-        <v>23.59000000000001</v>
+        <v>23.59833333333334</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>23</v>
       </c>
       <c r="F50" t="n">
-        <v>6167.6691</v>
+        <v>30</v>
       </c>
       <c r="G50" t="n">
-        <v>23.58166666666667</v>
+        <v>23.59000000000001</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>23</v>
       </c>
       <c r="F51" t="n">
-        <v>15005.0429</v>
+        <v>6167.6691</v>
       </c>
       <c r="G51" t="n">
-        <v>23.57333333333334</v>
+        <v>23.58166666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,21 +1866,24 @@
         <v>23</v>
       </c>
       <c r="C52" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="D52" t="n">
         <v>23</v>
       </c>
       <c r="E52" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="F52" t="n">
-        <v>16938.0792</v>
+        <v>15005.0429</v>
       </c>
       <c r="G52" t="n">
-        <v>23.56333333333334</v>
+        <v>23.57333333333334</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>23</v>
+      </c>
+      <c r="C53" t="n">
         <v>22.9</v>
       </c>
-      <c r="C53" t="n">
-        <v>22.7</v>
-      </c>
       <c r="D53" t="n">
+        <v>23</v>
+      </c>
+      <c r="E53" t="n">
         <v>22.9</v>
       </c>
-      <c r="E53" t="n">
-        <v>22.7</v>
-      </c>
       <c r="F53" t="n">
-        <v>352763.919</v>
+        <v>16938.0792</v>
       </c>
       <c r="G53" t="n">
-        <v>23.55166666666667</v>
+        <v>23.56333333333334</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="C54" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="D54" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="E54" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="F54" t="n">
-        <v>4000</v>
+        <v>352763.919</v>
       </c>
       <c r="G54" t="n">
-        <v>23.54000000000001</v>
+        <v>23.55166666666667</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,7 +1950,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="C55" t="n">
         <v>23.1</v>
@@ -1795,15 +1959,18 @@
         <v>23.1</v>
       </c>
       <c r="E55" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="F55" t="n">
-        <v>5433.0303</v>
+        <v>4000</v>
       </c>
       <c r="G55" t="n">
-        <v>23.52833333333334</v>
+        <v>23.54000000000001</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>23.1</v>
       </c>
       <c r="F56" t="n">
-        <v>9430.8233</v>
+        <v>5433.0303</v>
       </c>
       <c r="G56" t="n">
-        <v>23.51833333333333</v>
+        <v>23.52833333333334</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>23.1</v>
       </c>
       <c r="F57" t="n">
-        <v>9111.264800000001</v>
+        <v>9430.8233</v>
       </c>
       <c r="G57" t="n">
-        <v>23.50833333333333</v>
+        <v>23.51833333333333</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="C58" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="D58" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="E58" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="F58" t="n">
-        <v>49884.1611</v>
+        <v>9111.264800000001</v>
       </c>
       <c r="G58" t="n">
-        <v>23.5</v>
+        <v>23.50833333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="C59" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D59" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="E59" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="F59" t="n">
-        <v>3825.1977</v>
+        <v>49884.1611</v>
       </c>
       <c r="G59" t="n">
-        <v>23.495</v>
+        <v>23.5</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>23.2</v>
       </c>
       <c r="F60" t="n">
-        <v>198.118</v>
+        <v>3825.1977</v>
       </c>
       <c r="G60" t="n">
-        <v>23.48833333333334</v>
+        <v>23.495</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="C61" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="D61" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="E61" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="F61" t="n">
-        <v>9257.885899999999</v>
+        <v>198.118</v>
       </c>
       <c r="G61" t="n">
-        <v>23.475</v>
+        <v>23.48833333333334</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="C62" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="D62" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="E62" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="F62" t="n">
-        <v>15645</v>
+        <v>9257.885899999999</v>
       </c>
       <c r="G62" t="n">
-        <v>23.46833333333334</v>
+        <v>23.475</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,7 +2182,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="C63" t="n">
         <v>23.3</v>
@@ -2003,15 +2191,18 @@
         <v>23.3</v>
       </c>
       <c r="E63" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F63" t="n">
-        <v>2145.922746781116</v>
+        <v>15645</v>
       </c>
       <c r="G63" t="n">
-        <v>23.46</v>
+        <v>23.46833333333334</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>23.3</v>
       </c>
       <c r="F64" t="n">
-        <v>282.7585</v>
+        <v>2145.922746781116</v>
       </c>
       <c r="G64" t="n">
-        <v>23.45333333333333</v>
+        <v>23.46</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>23.3</v>
       </c>
       <c r="F65" t="n">
-        <v>282.5554</v>
+        <v>282.7585</v>
       </c>
       <c r="G65" t="n">
-        <v>23.44833333333333</v>
+        <v>23.45333333333333</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>23.3</v>
       </c>
       <c r="F66" t="n">
-        <v>16834.6074</v>
+        <v>282.5554</v>
       </c>
       <c r="G66" t="n">
-        <v>23.44166666666667</v>
+        <v>23.44833333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C67" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D67" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="E67" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F67" t="n">
-        <v>6089.9634</v>
+        <v>16834.6074</v>
       </c>
       <c r="G67" t="n">
-        <v>23.435</v>
+        <v>23.44166666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="C68" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D68" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="E68" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="F68" t="n">
-        <v>11100.0366</v>
+        <v>6089.9634</v>
       </c>
       <c r="G68" t="n">
-        <v>23.42333333333334</v>
+        <v>23.435</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>23.1</v>
       </c>
       <c r="F69" t="n">
-        <v>1244.217</v>
+        <v>11100.0366</v>
       </c>
       <c r="G69" t="n">
-        <v>23.415</v>
+        <v>23.42333333333334</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="C70" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="D70" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="E70" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="F70" t="n">
-        <v>7920.9145</v>
+        <v>1244.217</v>
       </c>
       <c r="G70" t="n">
-        <v>23.405</v>
+        <v>23.415</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="C71" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="D71" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="E71" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="F71" t="n">
-        <v>29212.6326</v>
+        <v>7920.9145</v>
       </c>
       <c r="G71" t="n">
-        <v>23.4</v>
+        <v>23.405</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="C72" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="D72" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="E72" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="F72" t="n">
-        <v>19589.4304</v>
+        <v>29212.6326</v>
       </c>
       <c r="G72" t="n">
-        <v>23.39166666666667</v>
+        <v>23.4</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>23.2</v>
       </c>
       <c r="F73" t="n">
-        <v>6194.1935</v>
+        <v>19589.4304</v>
       </c>
       <c r="G73" t="n">
-        <v>23.38666666666667</v>
+        <v>23.39166666666667</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="C74" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="D74" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="E74" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="F74" t="n">
-        <v>8311</v>
+        <v>6194.1935</v>
       </c>
       <c r="G74" t="n">
-        <v>23.39</v>
+        <v>23.38666666666667</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="C75" t="n">
         <v>23.7</v>
       </c>
       <c r="D75" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="E75" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="F75" t="n">
-        <v>9546.8359</v>
+        <v>8311</v>
       </c>
       <c r="G75" t="n">
-        <v>23.395</v>
+        <v>23.39</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="C76" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="D76" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="E76" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="F76" t="n">
-        <v>573.8058</v>
+        <v>9546.8359</v>
       </c>
       <c r="G76" t="n">
-        <v>23.405</v>
+        <v>23.395</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="C77" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="D77" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="E77" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="F77" t="n">
-        <v>22</v>
+        <v>573.8058</v>
       </c>
       <c r="G77" t="n">
-        <v>23.40666666666667</v>
+        <v>23.405</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,12 +2629,15 @@
         <v>23.7</v>
       </c>
       <c r="F78" t="n">
-        <v>1022</v>
+        <v>22</v>
       </c>
       <c r="G78" t="n">
-        <v>23.40833333333334</v>
+        <v>23.40666666666667</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,21 +2649,24 @@
         <v>23.7</v>
       </c>
       <c r="C79" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="D79" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="E79" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="F79" t="n">
-        <v>7952</v>
+        <v>1022</v>
       </c>
       <c r="G79" t="n">
-        <v>23.40500000000001</v>
+        <v>23.40833333333334</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C80" t="n">
-        <v>24.1</v>
+        <v>23.5</v>
       </c>
       <c r="D80" t="n">
-        <v>24.1</v>
+        <v>23.8</v>
       </c>
       <c r="E80" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="F80" t="n">
-        <v>22087</v>
+        <v>7952</v>
       </c>
       <c r="G80" t="n">
-        <v>23.41000000000001</v>
+        <v>23.40500000000001</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="C81" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="D81" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="E81" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="F81" t="n">
-        <v>40761.5889</v>
+        <v>22087</v>
       </c>
       <c r="G81" t="n">
-        <v>23.41333333333334</v>
+        <v>23.41000000000001</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="C82" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="D82" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="E82" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="F82" t="n">
-        <v>97234.63761983471</v>
+        <v>40761.5889</v>
       </c>
       <c r="G82" t="n">
-        <v>23.42000000000001</v>
+        <v>23.41333333333334</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="C83" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="D83" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="E83" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="F83" t="n">
-        <v>42596.59231336032</v>
+        <v>97234.63761983471</v>
       </c>
       <c r="G83" t="n">
-        <v>23.43833333333334</v>
+        <v>23.42000000000001</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="C84" t="n">
-        <v>23.7</v>
+        <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>24.1</v>
+        <v>25</v>
       </c>
       <c r="E84" t="n">
-        <v>23.3</v>
+        <v>24.3</v>
       </c>
       <c r="F84" t="n">
-        <v>68604.2405</v>
+        <v>42596.59231336032</v>
       </c>
       <c r="G84" t="n">
-        <v>23.43000000000001</v>
+        <v>23.43833333333334</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,25 +2820,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="C85" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="D85" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="E85" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="F85" t="n">
-        <v>19027.2448</v>
+        <v>68604.2405</v>
       </c>
       <c r="G85" t="n">
-        <v>23.41666666666667</v>
+        <v>23.43000000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C86" t="n">
         <v>23.6</v>
       </c>
-      <c r="C86" t="n">
-        <v>23.5</v>
-      </c>
       <c r="D86" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="E86" t="n">
         <v>23.6</v>
       </c>
-      <c r="E86" t="n">
-        <v>23.5</v>
-      </c>
       <c r="F86" t="n">
-        <v>8447.77</v>
+        <v>19027.2448</v>
       </c>
       <c r="G86" t="n">
-        <v>23.40333333333334</v>
+        <v>23.41666666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C87" t="n">
         <v>23.5</v>
       </c>
       <c r="D87" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E87" t="n">
         <v>23.5</v>
       </c>
       <c r="F87" t="n">
-        <v>38132.5</v>
+        <v>8447.77</v>
       </c>
       <c r="G87" t="n">
-        <v>23.395</v>
+        <v>23.40333333333334</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,21 +2910,24 @@
         <v>23.5</v>
       </c>
       <c r="C88" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="D88" t="n">
         <v>23.5</v>
       </c>
       <c r="E88" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="F88" t="n">
-        <v>28000</v>
+        <v>38132.5</v>
       </c>
       <c r="G88" t="n">
-        <v>23.38166666666667</v>
+        <v>23.395</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="C89" t="n">
         <v>23.2</v>
       </c>
       <c r="D89" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E89" t="n">
         <v>23.2</v>
       </c>
       <c r="F89" t="n">
-        <v>9342.92</v>
+        <v>28000</v>
       </c>
       <c r="G89" t="n">
-        <v>23.37333333333334</v>
+        <v>23.38166666666667</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C90" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D90" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E90" t="n">
         <v>23.2</v>
       </c>
       <c r="F90" t="n">
-        <v>23664.53</v>
+        <v>9342.92</v>
       </c>
       <c r="G90" t="n">
-        <v>23.36666666666667</v>
+        <v>23.37333333333334</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,7 +2994,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="C91" t="n">
         <v>23.3</v>
@@ -2731,15 +3003,18 @@
         <v>23.3</v>
       </c>
       <c r="E91" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F91" t="n">
-        <v>43503.64</v>
+        <v>23664.53</v>
       </c>
       <c r="G91" t="n">
-        <v>23.35666666666667</v>
+        <v>23.36666666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2751,21 +3026,24 @@
         <v>23.3</v>
       </c>
       <c r="C92" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D92" t="n">
         <v>23.3</v>
       </c>
       <c r="E92" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F92" t="n">
-        <v>887.7735</v>
+        <v>43503.64</v>
       </c>
       <c r="G92" t="n">
-        <v>23.35166666666667</v>
+        <v>23.35666666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C93" t="n">
         <v>23.2</v>
       </c>
       <c r="D93" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="E93" t="n">
         <v>23.2</v>
       </c>
       <c r="F93" t="n">
-        <v>11528.9256</v>
+        <v>887.7735</v>
       </c>
       <c r="G93" t="n">
-        <v>23.34833333333334</v>
+        <v>23.35166666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>23.2</v>
       </c>
       <c r="F94" t="n">
-        <v>12262.7686</v>
+        <v>11528.9256</v>
       </c>
       <c r="G94" t="n">
-        <v>23.34166666666667</v>
+        <v>23.34833333333334</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="C95" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="D95" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="E95" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="F95" t="n">
-        <v>13518.8221</v>
+        <v>12262.7686</v>
       </c>
       <c r="G95" t="n">
-        <v>23.355</v>
+        <v>23.34166666666667</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="C96" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="D96" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="E96" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="F96" t="n">
-        <v>46371.22</v>
+        <v>13518.8221</v>
       </c>
       <c r="G96" t="n">
-        <v>23.35</v>
+        <v>23.355</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2881,21 +3171,24 @@
         <v>23.2</v>
       </c>
       <c r="C97" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D97" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="E97" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="F97" t="n">
-        <v>30000</v>
+        <v>46371.22</v>
       </c>
       <c r="G97" t="n">
-        <v>23.34666666666667</v>
+        <v>23.35</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,10 +3197,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="C98" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="D98" t="n">
         <v>23.2</v>
@@ -2916,12 +3209,15 @@
         <v>23.1</v>
       </c>
       <c r="F98" t="n">
-        <v>4288.13</v>
+        <v>30000</v>
       </c>
       <c r="G98" t="n">
-        <v>23.34166666666667</v>
+        <v>23.34666666666667</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,7 +3229,7 @@
         <v>23.1</v>
       </c>
       <c r="C99" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D99" t="n">
         <v>23.2</v>
@@ -2942,12 +3238,15 @@
         <v>23.1</v>
       </c>
       <c r="F99" t="n">
-        <v>66866.7</v>
+        <v>4288.13</v>
       </c>
       <c r="G99" t="n">
-        <v>23.34</v>
+        <v>23.34166666666667</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="C100" t="n">
         <v>23.1</v>
       </c>
       <c r="D100" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="E100" t="n">
         <v>23.1</v>
       </c>
       <c r="F100" t="n">
-        <v>486</v>
+        <v>66866.7</v>
       </c>
       <c r="G100" t="n">
-        <v>23.32833333333333</v>
+        <v>23.34</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="C101" t="n">
         <v>23.1</v>
       </c>
       <c r="D101" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="E101" t="n">
         <v>23.1</v>
       </c>
       <c r="F101" t="n">
-        <v>199</v>
+        <v>486</v>
       </c>
       <c r="G101" t="n">
-        <v>23.32666666666666</v>
+        <v>23.32833333333333</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3017,15 +3322,18 @@
         <v>23.1</v>
       </c>
       <c r="E102" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="F102" t="n">
-        <v>17039.0892</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
-        <v>23.325</v>
+        <v>23.32666666666666</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3037,21 +3345,24 @@
         <v>23.1</v>
       </c>
       <c r="C103" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D103" t="n">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="E103" t="n">
         <v>23</v>
       </c>
       <c r="F103" t="n">
-        <v>13013</v>
+        <v>17039.0892</v>
       </c>
       <c r="G103" t="n">
-        <v>23.32</v>
+        <v>23.325</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,21 +3374,24 @@
         <v>23.1</v>
       </c>
       <c r="C104" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="D104" t="n">
         <v>23.6</v>
       </c>
       <c r="E104" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="F104" t="n">
-        <v>159</v>
+        <v>13013</v>
       </c>
       <c r="G104" t="n">
-        <v>23.325</v>
+        <v>23.32</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,21 +3403,24 @@
         <v>23.1</v>
       </c>
       <c r="C105" t="n">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="D105" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="E105" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="F105" t="n">
-        <v>5965.5507</v>
+        <v>159</v>
       </c>
       <c r="G105" t="n">
-        <v>23.315</v>
+        <v>23.325</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="C106" t="n">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="D106" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="E106" t="n">
-        <v>23.4</v>
+        <v>23</v>
       </c>
       <c r="F106" t="n">
-        <v>8778.455900000001</v>
+        <v>5965.5507</v>
       </c>
       <c r="G106" t="n">
-        <v>23.32</v>
+        <v>23.315</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C107" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D107" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E107" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="F107" t="n">
-        <v>2467.6514</v>
+        <v>8778.455900000001</v>
       </c>
       <c r="G107" t="n">
-        <v>23.32333333333333</v>
+        <v>23.32</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="C108" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="D108" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="E108" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="F108" t="n">
-        <v>42.3728813559322</v>
+        <v>2467.6514</v>
       </c>
       <c r="G108" t="n">
-        <v>23.33333333333333</v>
+        <v>23.32333333333333</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="C109" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="D109" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="E109" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="F109" t="n">
-        <v>2042.3728</v>
+        <v>42.3728813559322</v>
       </c>
       <c r="G109" t="n">
-        <v>23.33666666666667</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C110" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="D110" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="E110" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="F110" t="n">
-        <v>79372.4492</v>
+        <v>2042.3728</v>
       </c>
       <c r="G110" t="n">
         <v>23.33666666666667</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="C111" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="D111" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="E111" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="F111" t="n">
-        <v>3282.1893</v>
+        <v>79372.4492</v>
       </c>
       <c r="G111" t="n">
-        <v>23.34833333333334</v>
+        <v>23.33666666666667</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="C112" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="D112" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E112" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F112" t="n">
-        <v>34000</v>
+        <v>3282.1893</v>
       </c>
       <c r="G112" t="n">
-        <v>23.355</v>
+        <v>23.34833333333334</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="C113" t="n">
         <v>23.3</v>
       </c>
       <c r="D113" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="E113" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F113" t="n">
-        <v>13492.494</v>
+        <v>34000</v>
       </c>
       <c r="G113" t="n">
-        <v>23.365</v>
+        <v>23.355</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,21 +3664,24 @@
         <v>23.3</v>
       </c>
       <c r="C114" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D114" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="E114" t="n">
         <v>23.2</v>
       </c>
       <c r="F114" t="n">
-        <v>22905.5053</v>
+        <v>13492.494</v>
       </c>
       <c r="G114" t="n">
-        <v>23.36666666666667</v>
+        <v>23.365</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3349,21 +3693,24 @@
         <v>23.3</v>
       </c>
       <c r="C115" t="n">
-        <v>23.9</v>
+        <v>23.2</v>
       </c>
       <c r="D115" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="E115" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>22905.5053</v>
       </c>
       <c r="G115" t="n">
-        <v>23.38</v>
+        <v>23.36666666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3375,21 +3722,24 @@
         <v>23.3</v>
       </c>
       <c r="C116" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="D116" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="E116" t="n">
         <v>23.3</v>
       </c>
       <c r="F116" t="n">
-        <v>8160.8293</v>
+        <v>200</v>
       </c>
       <c r="G116" t="n">
-        <v>23.38333333333334</v>
+        <v>23.38</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3401,21 +3751,24 @@
         <v>23.3</v>
       </c>
       <c r="C117" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="D117" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="E117" t="n">
         <v>23.3</v>
       </c>
       <c r="F117" t="n">
-        <v>132016.070355</v>
+        <v>8160.8293</v>
       </c>
       <c r="G117" t="n">
-        <v>23.39833333333334</v>
+        <v>23.38333333333334</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="C118" t="n">
-        <v>23.4</v>
+        <v>24</v>
       </c>
       <c r="D118" t="n">
-        <v>23.4</v>
+        <v>24</v>
       </c>
       <c r="E118" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="F118" t="n">
-        <v>65.09999999999999</v>
+        <v>132016.070355</v>
       </c>
       <c r="G118" t="n">
-        <v>23.40000000000001</v>
+        <v>23.39833333333334</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>23.4</v>
       </c>
       <c r="F119" t="n">
-        <v>6026.47</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="G119" t="n">
-        <v>23.40333333333334</v>
+        <v>23.40000000000001</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3479,21 +3838,24 @@
         <v>23.4</v>
       </c>
       <c r="C120" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D120" t="n">
         <v>23.4</v>
       </c>
       <c r="E120" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="F120" t="n">
-        <v>65.09999999999999</v>
+        <v>6026.47</v>
       </c>
       <c r="G120" t="n">
-        <v>23.40500000000001</v>
+        <v>23.40333333333334</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C121" t="n">
         <v>23.3</v>
       </c>
       <c r="D121" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E121" t="n">
         <v>23.3</v>
       </c>
       <c r="F121" t="n">
-        <v>163.57</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>23.41000000000001</v>
+        <v>23.40500000000001</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3531,21 +3896,24 @@
         <v>23.3</v>
       </c>
       <c r="C122" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D122" t="n">
         <v>23.3</v>
       </c>
       <c r="E122" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F122" t="n">
-        <v>19809.55</v>
+        <v>163.57</v>
       </c>
       <c r="G122" t="n">
-        <v>23.40833333333334</v>
+        <v>23.41000000000001</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3557,21 +3925,24 @@
         <v>23.3</v>
       </c>
       <c r="C123" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D123" t="n">
         <v>23.3</v>
       </c>
       <c r="E123" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F123" t="n">
-        <v>4469.71</v>
+        <v>19809.55</v>
       </c>
       <c r="G123" t="n">
         <v>23.40833333333334</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>23.3</v>
       </c>
       <c r="F124" t="n">
-        <v>829.78</v>
+        <v>4469.71</v>
       </c>
       <c r="G124" t="n">
         <v>23.40833333333334</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3609,21 +3983,24 @@
         <v>23.3</v>
       </c>
       <c r="C125" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="D125" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="E125" t="n">
         <v>23.3</v>
       </c>
       <c r="F125" t="n">
-        <v>12139.8179</v>
+        <v>829.78</v>
       </c>
       <c r="G125" t="n">
-        <v>23.41000000000001</v>
+        <v>23.40833333333334</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,7 +4009,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="C126" t="n">
         <v>23.4</v>
@@ -3641,15 +4018,18 @@
         <v>23.4</v>
       </c>
       <c r="E126" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="F126" t="n">
-        <v>29881.0109</v>
+        <v>12139.8179</v>
       </c>
       <c r="G126" t="n">
-        <v>23.41166666666668</v>
+        <v>23.41000000000001</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C127" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="D127" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E127" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="F127" t="n">
-        <v>48879.1141</v>
+        <v>29881.0109</v>
       </c>
       <c r="G127" t="n">
         <v>23.41166666666668</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3687,21 +4070,24 @@
         <v>23.3</v>
       </c>
       <c r="C128" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D128" t="n">
         <v>23.3</v>
       </c>
       <c r="E128" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F128" t="n">
-        <v>1269.0229</v>
+        <v>48879.1141</v>
       </c>
       <c r="G128" t="n">
-        <v>23.41500000000001</v>
+        <v>23.41166666666668</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="C129" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="D129" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="E129" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="F129" t="n">
-        <v>1750.2248</v>
+        <v>1269.0229</v>
       </c>
       <c r="G129" t="n">
-        <v>23.42333333333335</v>
+        <v>23.41500000000001</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3748,12 +4137,15 @@
         <v>23.6</v>
       </c>
       <c r="F130" t="n">
-        <v>1269.0229</v>
+        <v>1750.2248</v>
       </c>
       <c r="G130" t="n">
-        <v>23.43000000000001</v>
+        <v>23.42333333333335</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3765,21 +4157,24 @@
         <v>23.6</v>
       </c>
       <c r="C131" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="D131" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="E131" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="F131" t="n">
-        <v>23551.52</v>
+        <v>1269.0229</v>
       </c>
       <c r="G131" t="n">
-        <v>23.42666666666668</v>
+        <v>23.43000000000001</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="C132" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D132" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="E132" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F132" t="n">
-        <v>1751.4186</v>
+        <v>23551.52</v>
       </c>
       <c r="G132" t="n">
-        <v>23.42833333333334</v>
+        <v>23.42666666666668</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,7 +4212,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C133" t="n">
         <v>23.3</v>
@@ -3823,15 +4221,18 @@
         <v>23.3</v>
       </c>
       <c r="E133" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F133" t="n">
-        <v>16187.7793</v>
+        <v>1751.4186</v>
       </c>
       <c r="G133" t="n">
-        <v>23.43000000000001</v>
+        <v>23.42833333333334</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="C134" t="n">
         <v>23.3</v>
       </c>
       <c r="D134" t="n">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="E134" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F134" t="n">
-        <v>14200</v>
+        <v>16187.7793</v>
       </c>
       <c r="G134" t="n">
-        <v>23.42333333333334</v>
+        <v>23.43000000000001</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="C135" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D135" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="E135" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F135" t="n">
-        <v>23632.1234</v>
+        <v>14200</v>
       </c>
       <c r="G135" t="n">
-        <v>23.41500000000001</v>
+        <v>23.42333333333334</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3895,21 +4302,24 @@
         <v>23.2</v>
       </c>
       <c r="C136" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D136" t="n">
         <v>23.2</v>
       </c>
       <c r="E136" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="F136" t="n">
-        <v>4721.0057</v>
+        <v>23632.1234</v>
       </c>
       <c r="G136" t="n">
-        <v>23.41166666666667</v>
+        <v>23.41500000000001</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="C137" t="n">
         <v>23.1</v>
       </c>
       <c r="D137" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="E137" t="n">
         <v>23.1</v>
       </c>
       <c r="F137" t="n">
-        <v>30093.7058</v>
+        <v>4721.0057</v>
       </c>
       <c r="G137" t="n">
-        <v>23.40166666666667</v>
+        <v>23.41166666666667</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3947,21 +4360,24 @@
         <v>23.1</v>
       </c>
       <c r="C138" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D138" t="n">
         <v>23.1</v>
       </c>
       <c r="E138" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="F138" t="n">
-        <v>40924.6261</v>
+        <v>30093.7058</v>
       </c>
       <c r="G138" t="n">
-        <v>23.39</v>
+        <v>23.40166666666667</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C139" t="n">
         <v>23</v>
       </c>
-      <c r="C139" t="n">
-        <v>22.9</v>
-      </c>
       <c r="D139" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E139" t="n">
         <v>23</v>
       </c>
-      <c r="E139" t="n">
-        <v>22.9</v>
-      </c>
       <c r="F139" t="n">
-        <v>900</v>
+        <v>40924.6261</v>
       </c>
       <c r="G139" t="n">
-        <v>23.38</v>
+        <v>23.39</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3999,21 +4418,24 @@
         <v>23</v>
       </c>
       <c r="C140" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="D140" t="n">
         <v>23</v>
       </c>
       <c r="E140" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="F140" t="n">
-        <v>87</v>
+        <v>900</v>
       </c>
       <c r="G140" t="n">
-        <v>23.36166666666667</v>
+        <v>23.38</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4025,21 +4447,24 @@
         <v>23</v>
       </c>
       <c r="C141" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="D141" t="n">
         <v>23</v>
       </c>
       <c r="E141" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="F141" t="n">
-        <v>69008.9826</v>
+        <v>87</v>
       </c>
       <c r="G141" t="n">
-        <v>23.34333333333334</v>
+        <v>23.36166666666667</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="C142" t="n">
-        <v>23.6</v>
+        <v>22.9</v>
       </c>
       <c r="D142" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="E142" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="F142" t="n">
-        <v>63249.71</v>
+        <v>69008.9826</v>
       </c>
       <c r="G142" t="n">
-        <v>23.33333333333334</v>
+        <v>23.34333333333334</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C143" t="n">
         <v>23.6</v>
-      </c>
-      <c r="C143" t="n">
-        <v>22.6</v>
       </c>
       <c r="D143" t="n">
         <v>23.6</v>
       </c>
       <c r="E143" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="F143" t="n">
-        <v>6199.0817</v>
+        <v>63249.71</v>
       </c>
       <c r="G143" t="n">
-        <v>23.29333333333334</v>
+        <v>23.33333333333334</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>22.7</v>
+        <v>23.6</v>
       </c>
       <c r="C144" t="n">
         <v>22.6</v>
       </c>
       <c r="D144" t="n">
-        <v>22.7</v>
+        <v>23.6</v>
       </c>
       <c r="E144" t="n">
         <v>22.6</v>
       </c>
       <c r="F144" t="n">
-        <v>92878.4148</v>
+        <v>6199.0817</v>
       </c>
       <c r="G144" t="n">
-        <v>23.275</v>
+        <v>23.29333333333334</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C145" t="n">
         <v>22.6</v>
       </c>
-      <c r="C145" t="n">
-        <v>22.5</v>
-      </c>
       <c r="D145" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E145" t="n">
         <v>22.6</v>
       </c>
-      <c r="E145" t="n">
-        <v>22.5</v>
-      </c>
       <c r="F145" t="n">
-        <v>52104.2478</v>
+        <v>92878.4148</v>
       </c>
       <c r="G145" t="n">
-        <v>23.25666666666667</v>
+        <v>23.275</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4155,21 +4592,24 @@
         <v>22.6</v>
       </c>
       <c r="C146" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="D146" t="n">
         <v>22.6</v>
       </c>
       <c r="E146" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="F146" t="n">
-        <v>1924.16</v>
+        <v>52104.2478</v>
       </c>
       <c r="G146" t="n">
-        <v>23.24166666666667</v>
+        <v>23.25666666666667</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="C147" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="D147" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="E147" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="F147" t="n">
-        <v>15260.1765</v>
+        <v>1924.16</v>
       </c>
       <c r="G147" t="n">
-        <v>23.225</v>
+        <v>23.24166666666667</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>22.5</v>
       </c>
       <c r="F148" t="n">
-        <v>21712.15</v>
+        <v>15260.1765</v>
       </c>
       <c r="G148" t="n">
-        <v>23.21333333333333</v>
+        <v>23.225</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>22.5</v>
       </c>
       <c r="F149" t="n">
-        <v>49665.2447</v>
+        <v>21712.15</v>
       </c>
       <c r="G149" t="n">
-        <v>23.20166666666666</v>
+        <v>23.21333333333333</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4717,15 @@
         <v>22.5</v>
       </c>
       <c r="F150" t="n">
-        <v>3672.6787</v>
+        <v>49665.2447</v>
       </c>
       <c r="G150" t="n">
-        <v>23.18833333333333</v>
+        <v>23.20166666666666</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="C151" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="D151" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="E151" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="F151" t="n">
-        <v>91167.12390000001</v>
+        <v>3672.6787</v>
       </c>
       <c r="G151" t="n">
-        <v>23.17333333333334</v>
+        <v>23.18833333333333</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4320,12 +4775,15 @@
         <v>22.4</v>
       </c>
       <c r="F152" t="n">
-        <v>6309.9502</v>
+        <v>91167.12390000001</v>
       </c>
       <c r="G152" t="n">
-        <v>23.16</v>
+        <v>23.17333333333334</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="C153" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="D153" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="E153" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="F153" t="n">
-        <v>15118.1871</v>
+        <v>6309.9502</v>
       </c>
       <c r="G153" t="n">
-        <v>23.14833333333333</v>
+        <v>23.16</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4363,21 +4824,24 @@
         <v>22.5</v>
       </c>
       <c r="C154" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="D154" t="n">
         <v>22.5</v>
       </c>
       <c r="E154" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="F154" t="n">
-        <v>74214.6633</v>
+        <v>15118.1871</v>
       </c>
       <c r="G154" t="n">
-        <v>23.135</v>
+        <v>23.14833333333333</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4398,12 +4862,15 @@
         <v>22.4</v>
       </c>
       <c r="F155" t="n">
-        <v>16000</v>
+        <v>74214.6633</v>
       </c>
       <c r="G155" t="n">
-        <v>23.11166666666667</v>
+        <v>23.135</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C156" t="n">
         <v>22.4</v>
       </c>
-      <c r="C156" t="n">
-        <v>21.5</v>
-      </c>
       <c r="D156" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E156" t="n">
         <v>22.4</v>
       </c>
-      <c r="E156" t="n">
-        <v>21.5</v>
-      </c>
       <c r="F156" t="n">
-        <v>76261.1091</v>
+        <v>16000</v>
       </c>
       <c r="G156" t="n">
-        <v>23.08333333333334</v>
+        <v>23.11166666666667</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="C157" t="n">
-        <v>22.8</v>
+        <v>21.5</v>
       </c>
       <c r="D157" t="n">
-        <v>22.8</v>
+        <v>22.4</v>
       </c>
       <c r="E157" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="F157" t="n">
-        <v>6104</v>
+        <v>76261.1091</v>
       </c>
       <c r="G157" t="n">
-        <v>23.07833333333334</v>
+        <v>23.08333333333334</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="C158" t="n">
-        <v>21.8</v>
+        <v>22.8</v>
       </c>
       <c r="D158" t="n">
-        <v>21.9</v>
+        <v>22.8</v>
       </c>
       <c r="E158" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="F158" t="n">
-        <v>12000</v>
+        <v>6104</v>
       </c>
       <c r="G158" t="n">
-        <v>23.055</v>
+        <v>23.07833333333334</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="C159" t="n">
         <v>21.8</v>
       </c>
       <c r="D159" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="E159" t="n">
         <v>21.8</v>
       </c>
       <c r="F159" t="n">
-        <v>9051.290000000001</v>
+        <v>12000</v>
       </c>
       <c r="G159" t="n">
-        <v>23.03333333333334</v>
+        <v>23.055</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4519,21 +4998,24 @@
         <v>21.8</v>
       </c>
       <c r="C160" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D160" t="n">
         <v>21.8</v>
       </c>
       <c r="E160" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="F160" t="n">
-        <v>4625.3513</v>
+        <v>9051.290000000001</v>
       </c>
       <c r="G160" t="n">
-        <v>23.00833333333334</v>
+        <v>23.03333333333334</v>
       </c>
       <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="C161" t="n">
         <v>21.6</v>
       </c>
       <c r="D161" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="E161" t="n">
         <v>21.6</v>
       </c>
       <c r="F161" t="n">
-        <v>32522.9555</v>
+        <v>4625.3513</v>
       </c>
       <c r="G161" t="n">
-        <v>22.98333333333334</v>
+        <v>23.00833333333334</v>
       </c>
       <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="C162" t="n">
         <v>21.6</v>
       </c>
       <c r="D162" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="E162" t="n">
         <v>21.6</v>
       </c>
       <c r="F162" t="n">
-        <v>99358.8848</v>
+        <v>32522.9555</v>
       </c>
       <c r="G162" t="n">
-        <v>22.95833333333334</v>
+        <v>22.98333333333334</v>
       </c>
       <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4606,12 +5094,15 @@
         <v>21.6</v>
       </c>
       <c r="F163" t="n">
-        <v>9546.8359</v>
+        <v>99358.8848</v>
       </c>
       <c r="G163" t="n">
-        <v>22.935</v>
+        <v>22.95833333333334</v>
       </c>
       <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="C164" t="n">
-        <v>22.3</v>
+        <v>21.6</v>
       </c>
       <c r="D164" t="n">
-        <v>22.3</v>
+        <v>21.6</v>
       </c>
       <c r="E164" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="F164" t="n">
-        <v>37069</v>
+        <v>9546.8359</v>
       </c>
       <c r="G164" t="n">
-        <v>22.91333333333334</v>
+        <v>22.935</v>
       </c>
       <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="C165" t="n">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
       <c r="D165" t="n">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
       <c r="E165" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="F165" t="n">
-        <v>134717.8591</v>
+        <v>37069</v>
       </c>
       <c r="G165" t="n">
-        <v>22.89166666666667</v>
+        <v>22.91333333333334</v>
       </c>
       <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4675,21 +5172,24 @@
         <v>21.7</v>
       </c>
       <c r="C166" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="D166" t="n">
         <v>21.7</v>
       </c>
       <c r="E166" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="F166" t="n">
-        <v>301385.5773</v>
+        <v>134717.8591</v>
       </c>
       <c r="G166" t="n">
-        <v>22.85833333333334</v>
+        <v>22.89166666666667</v>
       </c>
       <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C167" t="n">
         <v>21.4</v>
       </c>
-      <c r="C167" t="n">
-        <v>21.2</v>
-      </c>
       <c r="D167" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E167" t="n">
         <v>21.4</v>
       </c>
-      <c r="E167" t="n">
-        <v>21.2</v>
-      </c>
       <c r="F167" t="n">
-        <v>99179.465</v>
+        <v>301385.5773</v>
       </c>
       <c r="G167" t="n">
-        <v>22.82333333333334</v>
+        <v>22.85833333333334</v>
       </c>
       <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="C168" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="D168" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="E168" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="F168" t="n">
-        <v>139822.9929</v>
+        <v>99179.465</v>
       </c>
       <c r="G168" t="n">
-        <v>22.78166666666667</v>
+        <v>22.82333333333334</v>
       </c>
       <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C169" t="n">
         <v>21.1</v>
       </c>
-      <c r="C169" t="n">
-        <v>21.2</v>
-      </c>
       <c r="D169" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="E169" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="F169" t="n">
-        <v>164877.7666319249</v>
+        <v>139822.9929</v>
       </c>
       <c r="G169" t="n">
-        <v>22.74833333333334</v>
+        <v>22.78166666666667</v>
       </c>
       <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="C170" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="D170" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="E170" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="F170" t="n">
-        <v>4321.6193</v>
+        <v>164877.7666319249</v>
       </c>
       <c r="G170" t="n">
-        <v>22.72166666666667</v>
+        <v>22.74833333333334</v>
       </c>
       <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,12 +5326,15 @@
         <v>21.4</v>
       </c>
       <c r="F171" t="n">
-        <v>7712.4107</v>
+        <v>4321.6193</v>
       </c>
       <c r="G171" t="n">
-        <v>22.68333333333334</v>
+        <v>22.72166666666667</v>
       </c>
       <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="C172" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="D172" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="E172" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="F172" t="n">
-        <v>15000</v>
+        <v>7712.4107</v>
       </c>
       <c r="G172" t="n">
-        <v>22.65333333333334</v>
+        <v>22.68333333333334</v>
       </c>
       <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="C173" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="D173" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="E173" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="F173" t="n">
-        <v>578.3143</v>
+        <v>15000</v>
       </c>
       <c r="G173" t="n">
-        <v>22.62500000000001</v>
+        <v>22.65333333333334</v>
       </c>
       <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="C174" t="n">
-        <v>22.5</v>
+        <v>21.6</v>
       </c>
       <c r="D174" t="n">
-        <v>22.5</v>
+        <v>21.6</v>
       </c>
       <c r="E174" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="F174" t="n">
-        <v>45690.53853911111</v>
+        <v>578.3143</v>
       </c>
       <c r="G174" t="n">
-        <v>22.61333333333334</v>
+        <v>22.62500000000001</v>
       </c>
       <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>22.2</v>
+        <v>21.5</v>
       </c>
       <c r="C175" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="D175" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="E175" t="n">
-        <v>22.2</v>
+        <v>21.5</v>
       </c>
       <c r="F175" t="n">
-        <v>573.1765</v>
+        <v>45690.53853911111</v>
       </c>
       <c r="G175" t="n">
-        <v>22.585</v>
+        <v>22.61333333333334</v>
       </c>
       <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4935,21 +5462,24 @@
         <v>22.2</v>
       </c>
       <c r="C176" t="n">
-        <v>21.4</v>
+        <v>22.2</v>
       </c>
       <c r="D176" t="n">
         <v>22.2</v>
       </c>
       <c r="E176" t="n">
-        <v>21.4</v>
+        <v>22.2</v>
       </c>
       <c r="F176" t="n">
-        <v>18699.9332</v>
+        <v>573.1765</v>
       </c>
       <c r="G176" t="n">
-        <v>22.55333333333334</v>
+        <v>22.585</v>
       </c>
       <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4961,21 +5491,24 @@
         <v>22.2</v>
       </c>
       <c r="C177" t="n">
-        <v>22.2</v>
+        <v>21.4</v>
       </c>
       <c r="D177" t="n">
         <v>22.2</v>
       </c>
       <c r="E177" t="n">
-        <v>22.2</v>
+        <v>21.4</v>
       </c>
       <c r="F177" t="n">
-        <v>35761.44144144144</v>
+        <v>18699.9332</v>
       </c>
       <c r="G177" t="n">
-        <v>22.52333333333334</v>
+        <v>22.55333333333334</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>21.5</v>
+        <v>22.2</v>
       </c>
       <c r="C178" t="n">
-        <v>21.4</v>
+        <v>22.2</v>
       </c>
       <c r="D178" t="n">
-        <v>21.5</v>
+        <v>22.2</v>
       </c>
       <c r="E178" t="n">
-        <v>21.4</v>
+        <v>22.2</v>
       </c>
       <c r="F178" t="n">
-        <v>13136.8621</v>
+        <v>35761.44144144144</v>
       </c>
       <c r="G178" t="n">
-        <v>22.49000000000001</v>
+        <v>22.52333333333334</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="C179" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="D179" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="E179" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="F179" t="n">
-        <v>1375.7365</v>
+        <v>13136.8621</v>
       </c>
       <c r="G179" t="n">
-        <v>22.46</v>
+        <v>22.49000000000001</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5048,12 +5587,15 @@
         <v>21.6</v>
       </c>
       <c r="F180" t="n">
-        <v>9113.1088</v>
+        <v>1375.7365</v>
       </c>
       <c r="G180" t="n">
-        <v>22.43166666666667</v>
+        <v>22.46</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="C181" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="D181" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="E181" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="F181" t="n">
-        <v>209.417</v>
+        <v>9113.1088</v>
       </c>
       <c r="G181" t="n">
-        <v>22.40166666666667</v>
+        <v>22.43166666666667</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5091,21 +5636,24 @@
         <v>21.5</v>
       </c>
       <c r="C182" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="D182" t="n">
         <v>21.5</v>
       </c>
       <c r="E182" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="F182" t="n">
-        <v>19517.1382</v>
+        <v>209.417</v>
       </c>
       <c r="G182" t="n">
-        <v>22.37</v>
+        <v>22.40166666666667</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,10 +5662,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C183" t="n">
         <v>21.3</v>
-      </c>
-      <c r="C183" t="n">
-        <v>21.5</v>
       </c>
       <c r="D183" t="n">
         <v>21.5</v>
@@ -5126,532 +5674,15 @@
         <v>21.3</v>
       </c>
       <c r="F183" t="n">
-        <v>27008.7696</v>
+        <v>19517.1382</v>
       </c>
       <c r="G183" t="n">
-        <v>22.34000000000001</v>
+        <v>22.37</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C184" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D184" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E184" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F184" t="n">
-        <v>128355.461</v>
-      </c>
-      <c r="G184" t="n">
-        <v>22.30000000000001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C185" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D185" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E185" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F185" t="n">
-        <v>57378</v>
-      </c>
-      <c r="G185" t="n">
-        <v>22.26833333333334</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C186" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="D186" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E186" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F186" t="n">
-        <v>20986.6069</v>
-      </c>
-      <c r="G186" t="n">
-        <v>22.24333333333334</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C187" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D187" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E187" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F187" t="n">
-        <v>24162.3251</v>
-      </c>
-      <c r="G187" t="n">
-        <v>22.21500000000001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C188" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="D188" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E188" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F188" t="n">
-        <v>341949.3738</v>
-      </c>
-      <c r="G188" t="n">
-        <v>22.19666666666667</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C189" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D189" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E189" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F189" t="n">
-        <v>112044.238</v>
-      </c>
-      <c r="G189" t="n">
-        <v>22.16333333333334</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C190" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D190" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E190" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F190" t="n">
-        <v>36484.6072</v>
-      </c>
-      <c r="G190" t="n">
-        <v>22.12833333333334</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C191" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D191" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E191" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F191" t="n">
-        <v>17900.7393</v>
-      </c>
-      <c r="G191" t="n">
-        <v>22.09666666666667</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C192" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D192" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E192" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F192" t="n">
-        <v>39762.6253</v>
-      </c>
-      <c r="G192" t="n">
-        <v>22.06500000000001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C193" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D193" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E193" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F193" t="n">
-        <v>52530.5488</v>
-      </c>
-      <c r="G193" t="n">
-        <v>22.03666666666668</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C194" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D194" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E194" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F194" t="n">
-        <v>26404.1974</v>
-      </c>
-      <c r="G194" t="n">
-        <v>22.00666666666667</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C195" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D195" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E195" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F195" t="n">
-        <v>50</v>
-      </c>
-      <c r="G195" t="n">
-        <v>21.98166666666668</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C196" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D196" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E196" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F196" t="n">
-        <v>44125.0747</v>
-      </c>
-      <c r="G196" t="n">
-        <v>21.96000000000001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C197" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D197" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E197" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F197" t="n">
-        <v>17130.9175</v>
-      </c>
-      <c r="G197" t="n">
-        <v>21.93666666666668</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C198" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D198" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E198" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F198" t="n">
-        <v>12504.3733</v>
-      </c>
-      <c r="G198" t="n">
-        <v>21.91500000000001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C199" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D199" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E199" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F199" t="n">
-        <v>3753.1076</v>
-      </c>
-      <c r="G199" t="n">
-        <v>21.89666666666668</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C200" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="D200" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="E200" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F200" t="n">
-        <v>95171.52259820628</v>
-      </c>
-      <c r="G200" t="n">
-        <v>21.87833333333334</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>22</v>
-      </c>
-      <c r="C201" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D201" t="n">
-        <v>22</v>
-      </c>
-      <c r="E201" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F201" t="n">
-        <v>47549.1002</v>
-      </c>
-      <c r="G201" t="n">
-        <v>21.86000000000001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="C202" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="D202" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E202" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F202" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G202" t="n">
-        <v>21.83166666666668</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C203" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D203" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E203" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F203" t="n">
-        <v>4152.38</v>
-      </c>
-      <c r="G203" t="n">
-        <v>21.81833333333335</v>
-      </c>
-      <c r="H203" t="n">
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
